--- a/shiny/NGS_cost/data/seq_costs.xlsx
+++ b/shiny/NGS_cost/data/seq_costs.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="sequencer" sheetId="1" r:id="rId1"/>
     <sheet name="lib_prep" sheetId="2" r:id="rId2"/>
-    <sheet name="key" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>HiSeq_3000</t>
   </si>
@@ -60,64 +58,16 @@
     <t>Sequencer</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Lib_prep_kit</t>
   </si>
   <si>
     <t>GB_per_run</t>
   </si>
   <si>
-    <t>GB_per_run_error</t>
-  </si>
-  <si>
-    <t>N_lanes</t>
-  </si>
-  <si>
     <t>Lane_cost</t>
   </si>
   <si>
-    <t>HiSeq 3000</t>
-  </si>
-  <si>
-    <t>2 x 150 bp</t>
-  </si>
-  <si>
-    <t>1 x 75 bp</t>
-  </si>
-  <si>
-    <t>1 x 50 bp</t>
-  </si>
-  <si>
-    <t>2 x 250 bp</t>
-  </si>
-  <si>
-    <t>2 x 300 bp</t>
-  </si>
-  <si>
-    <t>LITE (Nextera-hacked)</t>
-  </si>
-  <si>
-    <t>Nextera 96 rxns</t>
-  </si>
-  <si>
-    <t>Nextera 24 rxns</t>
-  </si>
-  <si>
-    <t>Barcoded PCR (amplicon)</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
     <t>Seq_reagents</t>
-  </si>
-  <si>
-    <t>N_multiplex</t>
   </si>
   <si>
     <t>Lib_prep_kit_cost</t>
@@ -178,8 +128,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -212,7 +164,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -227,6 +179,7 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -241,6 +194,7 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,7 +527,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -588,19 +542,19 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -719,7 +673,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -730,13 +684,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -781,215 +735,6 @@
       </c>
       <c r="C5">
         <v>576</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>700</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>1990.76</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
